--- a/Tuan excel.xlsx
+++ b/Tuan excel.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615"/>
   </bookViews>
   <sheets>
-    <sheet name="SLTB2" sheetId="16" r:id="rId1"/>
-    <sheet name="SLTB1" sheetId="15" r:id="rId2"/>
+    <sheet name="sheel2" sheetId="16" r:id="rId1"/>
+    <sheet name="sheel1" sheetId="15" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -169,7 +169,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tuan excel.xlsx]SLTB2!PivotTable12</c:name>
+    <c:name>[Tuan excel.xlsx]sheel2!PivotTable12</c:name>
     <c:fmtId val="31"/>
   </c:pivotSource>
   <c:chart>
@@ -203,6 +203,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -367,7 +368,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.8284602888018602E-2"/>
-          <c:y val="0.17092086748527707"/>
+          <c:y val="0.22359099438185678"/>
           <c:w val="0.89269054628104472"/>
           <c:h val="0.7052237866127633"/>
         </c:manualLayout>
@@ -380,7 +381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SLTB2!$B$3</c:f>
+              <c:f>sheel2!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -454,7 +455,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SLTB2!$A$4:$A$26</c:f>
+              <c:f>sheel2!$A$4:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -528,7 +529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SLTB2!$B$4:$B$26</c:f>
+              <c:f>sheel2!$B$4:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -739,6 +740,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1367,16 +1369,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1401,7 +1403,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="43616.724241666663" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="22">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C23" sheet="SLTB1"/>
+    <worksheetSource ref="A1:C23" sheet="sheel1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Năm" numFmtId="0">
@@ -1972,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
